--- a/ADMINISTRACION ORFEI 2020/BORRADOR 2.xlsx
+++ b/ADMINISTRACION ORFEI 2020/BORRADOR 2.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOCENTE\Desktop\ADMINISTRACION ORFEI 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GESTION ORFEI\Gestion-ORFEI\ADMINISTRACION ORFEI 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -107,9 +107,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -175,27 +175,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -478,25 +478,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K12"/>
+  <dimension ref="A2:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1"/>
-    <col min="2" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1"/>
+    <col min="1" max="1" width="12.6640625" style="1"/>
+    <col min="2" max="3" width="14.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1"/>
     <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="1"/>
+    <col min="7" max="8" width="12.6640625" style="1"/>
     <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7109375" style="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -520,24 +520,24 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E5" s="6" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
@@ -548,131 +548,153 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>2826631</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>103750</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>290015.8</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>111014.83</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <f>SUM(D8:G8)</f>
         <v>506780.63</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <f>+H8-H9</f>
         <v>67328.989999999991</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <f>+B8-D8-E8-F8-G8</f>
         <v>2319850.37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>42400.34</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>203149.17</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>193902.13</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
         <f t="shared" ref="H9:H10" si="0">SUM(D9:G9)</f>
         <v>439451.64</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <f>+H9-H10</f>
         <v>164161.03000000003</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <f>+B8-H9</f>
         <v>2387179.36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>42260.34</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>102079.67</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>96650.6</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>34300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>275290.61</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
         <f>+B8-H10</f>
         <v>2551340.39</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H12" s="1">
         <f>+H8-H9</f>
         <v>67328.989999999991</v>
       </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
